--- a/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
+++ b/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi1\MyHomeStudy(Automation Complete)\WorkspaceCodingAssignment\CodingAssignmentProject\CodingAssignmentProject\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi1\MyHomeStudy(Automation Complete)\WorkspaceCodingAssignment\CodingAssignmentProject\CodingAssignmentProject\resources\templates\TemperatureCalculationFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D8B306-AA25-4552-9A59-ABA19D154070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E6313-5612-4DAF-AF2D-00B6489CEB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temperature" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>LocatorName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Locator</t>
-  </si>
-  <si>
-    <t>subMenu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>CelsiusTemp</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>x-u</t>
+  </si>
+  <si>
+    <t>(x-u)^2</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>VarianceLogic</t>
   </si>
 </sst>
 </file>
@@ -101,10 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,72 +409,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2-B5</f>
+        <v>-2.9450000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2^2</f>
+        <v>8.6730250000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B3" s="1">
+        <v>35.89</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3-B5</f>
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3^2</f>
+        <v>8.6730250000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>AVERAGE(B2:B3)</f>
+        <v>32.945</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D2+D3</f>
+        <v>17.346050000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5/2</f>
+        <v>8.6730250000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <f>IF(D6&lt;3, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
+++ b/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi1\MyHomeStudy(Automation Complete)\WorkspaceCodingAssignment\CodingAssignmentProject\CodingAssignmentProject\resources\templates\TemperatureCalculationFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E6313-5612-4DAF-AF2D-00B6489CEB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1DFCD-60C5-4841-85FA-10C74C0BC3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -61,6 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,15 +413,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7421875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -441,32 +442,32 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>30</v>
+      <c r="B2" s="1" t="n">
+        <v>22.0</v>
       </c>
       <c r="C2" s="1">
         <f>B2-B5</f>
-        <v>-2.9450000000000003</v>
+        <v>-1.7899999618529989</v>
       </c>
       <c r="D2" s="1">
         <f>C2^2</f>
-        <v>8.6730250000000009</v>
+        <v>3.2040998634337376</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>35.89</v>
+      <c r="B3" s="1" t="n">
+        <v>25.579999923706055</v>
       </c>
       <c r="C3" s="1">
         <f>B3-B5</f>
-        <v>2.9450000000000003</v>
+        <v>1.7899999618530025</v>
       </c>
       <c r="D3" s="1">
         <f>C3^2</f>
-        <v>8.6730250000000009</v>
+        <v>3.2040998634337505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -481,14 +482,14 @@
       </c>
       <c r="B5" s="1">
         <f>AVERAGE(B2:B3)</f>
-        <v>32.945</v>
+        <v>23.789999961852999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1">
         <f>D2+D3</f>
-        <v>17.346050000000002</v>
+        <v>6.4081997268674886</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -499,7 +500,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5/2</f>
-        <v>8.6730250000000009</v>
+        <v>3.2040998634337443</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">

--- a/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
+++ b/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi1\MyHomeStudy(Automation Complete)\WorkspaceCodingAssignment\CodingAssignmentProject\CodingAssignmentProject\resources\templates\TemperatureCalculationFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1DFCD-60C5-4841-85FA-10C74C0BC3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57083A0-DFA1-4671-B1A5-F50F5E95EBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,11 +447,11 @@
       </c>
       <c r="C2" s="1">
         <f>B2-B5</f>
-        <v>-1.7899999618529989</v>
+        <v>-1.0799999237060476</v>
       </c>
       <c r="D2" s="1">
         <f>C2^2</f>
-        <v>3.2040998634337376</v>
+        <v>1.1663998352050686</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -459,15 +459,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>25.579999923706055</v>
+        <v>22.420000076293945</v>
       </c>
       <c r="C3" s="1">
         <f>B3-B5</f>
-        <v>1.7899999618530025</v>
+        <v>1.0799999237060511</v>
       </c>
       <c r="D3" s="1">
         <f>C3^2</f>
-        <v>3.2040998634337505</v>
+        <v>1.1663998352050762</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -482,14 +482,14 @@
       </c>
       <c r="B5" s="1">
         <f>AVERAGE(B2:B3)</f>
-        <v>23.789999961852999</v>
+        <v>23.079999923706048</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1">
         <f>D2+D3</f>
-        <v>6.4081997268674886</v>
+        <v>2.3327996704101448</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -500,7 +500,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5/2</f>
-        <v>3.2040998634337443</v>
+        <v>1.1663998352050724</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
       </c>
       <c r="D7" s="1" t="b">
         <f>IF(D6&lt;3, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">

--- a/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
+++ b/resources/templates/TemperatureCalculationFolder/TemperatureCalculation.xlsx
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>22.420000076293945</v>
+        <v>22.0</v>
       </c>
       <c r="C3" s="1">
         <f>B3-B5</f>
